--- a/home/static/css/plantilla_empleados.xlsx
+++ b/home/static/css/plantilla_empleados.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SISTEMAS UNICORSALUD\Documents\GitHub\SIUS\home\static\css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0630CB27-EB60-4846-B3AB-C4CEA81C39E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABD76A4-9B81-456C-982A-91249FD9293C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FA2AF414-44D4-4FCA-B161-605C64BCFA80}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="plantilla_empleados" sheetId="1" r:id="rId1"/>
+    <sheet name="NO_BORRAR!" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="97">
   <si>
     <t>primer_nombre</t>
   </si>
@@ -87,12 +87,6 @@
     <t>Docente</t>
   </si>
   <si>
-    <t>moises</t>
-  </si>
-  <si>
-    <t>ovalle</t>
-  </si>
-  <si>
     <t>Amazonas</t>
   </si>
   <si>
@@ -313,9 +307,6 @@
   </si>
   <si>
     <t>Old Mutual (Skandia)</t>
-  </si>
-  <si>
-    <t>moises@gmail.com</t>
   </si>
   <si>
     <t>Registro Civil</t>
@@ -722,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D72B233-A8D0-4A19-863B-4C4F43D03B01}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,95 +774,56 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1">
-        <v>45559</v>
-      </c>
-      <c r="F2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2">
-        <v>34234234</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2">
-        <v>3343353</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" t="s">
-        <v>87</v>
-      </c>
+      <c r="E2" s="1"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{B3FFA276-E56D-46AD-8B33-4CC7B3782C0F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A7D66808-35FC-4972-959F-59AABCB93536}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{668B3849-0C4F-4B85-BC37-26971AF5F2A2}">
           <x14:formula1>
-            <xm:f>Hoja2!$A$2:$A$4</xm:f>
+            <xm:f>'NO_BORRAR!'!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C2</xm:sqref>
+          <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{59BFE0E2-258F-47D8-B05C-45F8643407B6}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E65DC06E-036F-49C7-803A-70BCF6989DDC}">
           <x14:formula1>
-            <xm:f>Hoja2!$B$2:$B$4</xm:f>
+            <xm:f>'NO_BORRAR!'!$B$2:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>D2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4B5AA111-2D92-4CA8-9D25-3219BD586364}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BF44E74B-782D-45FE-9632-F8BDADB5FCE1}">
           <x14:formula1>
-            <xm:f>Hoja2!$C$2:$C$8</xm:f>
+            <xm:f>'NO_BORRAR!'!$C$2:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>F2</xm:sqref>
+          <xm:sqref>F2:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C4EBF69F-3B25-4784-B32B-8D46BAD37913}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FD5FF0B8-545E-4450-91DC-335E96B16013}">
           <x14:formula1>
-            <xm:f>Hoja2!$D$2:$D$33</xm:f>
+            <xm:f>'NO_BORRAR!'!$D$2:$D$33</xm:f>
           </x14:formula1>
-          <xm:sqref>J2</xm:sqref>
+          <xm:sqref>J2:J1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5A155CA0-46C8-4649-8405-0F47A4D8550B}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B01DC40A-DACF-4A1B-9AE4-C39DE2B74195}">
           <x14:formula1>
-            <xm:f>Hoja2!$E$2:$E$9</xm:f>
+            <xm:f>'NO_BORRAR!'!$E$2:$E$9</xm:f>
           </x14:formula1>
-          <xm:sqref>K2</xm:sqref>
+          <xm:sqref>K2:K1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7BF548A6-52DA-4605-864B-CD7EBB14821A}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{832BD345-7347-4676-807B-9089AA119AED}">
           <x14:formula1>
-            <xm:f>Hoja2!$F$2:$F$30</xm:f>
+            <xm:f>'NO_BORRAR!'!$F$2:$F$30</xm:f>
           </x14:formula1>
-          <xm:sqref>L2</xm:sqref>
+          <xm:sqref>L2:L1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4BE624E-F316-455E-81E7-04C282E8E15A}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8EB87E59-8EB0-499B-8451-0A89142E0327}">
           <x14:formula1>
-            <xm:f>Hoja2!$G$2:$G$7</xm:f>
+            <xm:f>'NO_BORRAR!'!$G$2:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>M2</xm:sqref>
+          <xm:sqref>M2:M1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -884,7 +836,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,19 +880,19 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -951,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -974,278 +926,278 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
